--- a/books/计划.xlsx
+++ b/books/计划.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\总体设计评测室\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050C5E7D-FBE7-4629-93BB-3E0394B531D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1FF74176-2DE0-40A5-A73C-96A1291A35D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,79 +37,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>软件测试 52 讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能测试实战 30 讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://time.geekbang.org/column/intro/100042501?utm_source=u_nav_web&amp;utm_medium=u_nav_web&amp;utm_term=u_nav_web%EF%BC%8C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://time.geekbang.org/column/intro/100045801?utm_source=u_nav_web&amp;utm_medium=u_nav_web&amp;utm_term=u_nav_web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口测试入门课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://time.geekbang.org/course/intro/100055001?utm_source=u_nav_web&amp;utm_medium=u_nav_web&amp;utm_term=u_nav_web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动端自动化测试实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://time.geekbang.org/course/intro/100038001?utm_source=u_nav_web&amp;utm_medium=u_nav_web&amp;utm_term=u_nav_web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web 安全攻防实战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据测试必备技术-Python实现企业信息自动化ETL工具开发实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.atstudy.com/course/1010071?htb=1&amp;isWebview=1&amp;version=3.0.0&amp;platform=iOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.atstudy.com/course/1001589?htb=1&amp;isWebview=1&amp;version=3.0.0&amp;platform=iOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学掌门上的账号、密码：13718631771，thctest@1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极客时间上的账号、密码：13718631771，thctest1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://time.geekbang.org/column/intro/100009601?utm_source=u_nav_web&amp;utm_medium=u_nav_web&amp;utm_term=u_nav_web</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件测试 52 讲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性能测试实战 30 讲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://time.geekbang.org/column/intro/100042501?utm_source=u_nav_web&amp;utm_medium=u_nav_web&amp;utm_term=u_nav_web%EF%BC%8C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://time.geekbang.org/column/intro/100045801?utm_source=u_nav_web&amp;utm_medium=u_nav_web&amp;utm_term=u_nav_web</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口测试入门课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://time.geekbang.org/course/intro/100055001?utm_source=u_nav_web&amp;utm_medium=u_nav_web&amp;utm_term=u_nav_web</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动端自动化测试实战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://time.geekbang.org/course/intro/100038001?utm_source=u_nav_web&amp;utm_medium=u_nav_web&amp;utm_term=u_nav_web</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web 安全攻防实战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大数据测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大数据测试必备技术-Python实现企业信息自动化ETL工具开发实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.atstudy.com/course/1010071?htb=1&amp;isWebview=1&amp;version=3.0.0&amp;platform=iOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.atstudy.com/course/1001589?htb=1&amp;isWebview=1&amp;version=3.0.0&amp;platform=iOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学掌门上的账号、密码：13718631771，thctest@1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极客时间上的账号、密码：13718631771，thctest1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +158,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -205,7 +206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,6 +235,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -297,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -349,7 +353,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -543,28 +547,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72D651E-E6E3-45F1-AFAB-F2C3125D9CBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="90.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="126.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,107 +582,107 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7" t="s">
         <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D2" s="3">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="D3" s="3">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="D6" s="3">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3">
         <v>630</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3">
         <v>499</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -687,25 +691,26 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="14.25">
       <c r="B13" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="B14" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{F01DF713-CDB6-428C-8BE6-059E11E01AC1}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{3026D46A-988E-4A33-948A-7EB58B70EEF6}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{DE0AAA9F-CA7A-4F7F-9543-523D051B23DF}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{BFEEE898-BD6F-42C3-8EA1-084943EB19E1}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>